--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_23.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_23.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_9</t>
+          <t>model_1_23_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9883885033910744</v>
+        <v>0.9129892758247288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7306361991975416</v>
+        <v>0.7141318670280851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7089783519069153</v>
+        <v>0.6109179465132741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9441487155036311</v>
+        <v>0.7080995020353424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04873096730687759</v>
+        <v>0.3651653958089752</v>
       </c>
       <c r="G2" t="n">
-        <v>1.801236976272295</v>
+        <v>1.911601521484913</v>
       </c>
       <c r="H2" t="n">
-        <v>1.040967560824265</v>
+        <v>1.391723945048325</v>
       </c>
       <c r="I2" t="n">
-        <v>0.139957853780817</v>
+        <v>0.201533048515033</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4441802606918796</v>
+        <v>2.247808974997243</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2207509168879658</v>
+        <v>0.6042891657219871</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006796973624737</v>
+        <v>0.7016775171133558</v>
       </c>
       <c r="M2" t="n">
-        <v>0.230148740437281</v>
+        <v>0.6300150065577934</v>
       </c>
       <c r="N2" t="n">
-        <v>136.0428811439753</v>
+        <v>36.01480977766708</v>
       </c>
       <c r="O2" t="n">
-        <v>215.2698097604084</v>
+        <v>56.73569880042648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_8</t>
+          <t>model_1_23_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9884453144679106</v>
+        <v>0.9127936603795923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7303868597712662</v>
+        <v>0.7141301703512161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7088395072432789</v>
+        <v>0.6111409340269313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9454629691336154</v>
+        <v>0.7178357590004569</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04849254337056545</v>
+        <v>0.3659863519856614</v>
       </c>
       <c r="G3" t="n">
-        <v>1.802904310163902</v>
+        <v>1.911612867170949</v>
       </c>
       <c r="H3" t="n">
-        <v>1.041464200135416</v>
+        <v>1.390926331641532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1366644627865918</v>
+        <v>0.1948109717766001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4473949419647165</v>
+        <v>2.252225682646008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2202102253996518</v>
+        <v>0.6049680586491004</v>
       </c>
       <c r="L3" t="n">
-        <v>1.006763718360247</v>
+        <v>0.7010068355871737</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2295850305929238</v>
+        <v>0.6307228013623161</v>
       </c>
       <c r="N3" t="n">
-        <v>136.0526904755909</v>
+        <v>36.01031847186542</v>
       </c>
       <c r="O3" t="n">
-        <v>215.2796190920239</v>
+        <v>56.73120749462483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_7</t>
+          <t>model_1_23_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9884981077776291</v>
+        <v>0.9131500195195169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7301331974674654</v>
+        <v>0.7141171691800485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7086861929918375</v>
+        <v>0.6106489413747878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9467605353321333</v>
+        <v>0.6975763827695123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04827098114335549</v>
+        <v>0.3644907889086481</v>
       </c>
       <c r="G4" t="n">
-        <v>1.804600551157424</v>
+        <v>1.91169980606241</v>
       </c>
       <c r="H4" t="n">
-        <v>1.042012596323151</v>
+        <v>1.392686160830876</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1334128888627207</v>
+        <v>0.2087983883151276</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4506327795682847</v>
+        <v>2.243379553810906</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2197065796542186</v>
+        <v>0.6037307254965976</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006732814959437</v>
+        <v>0.7022286383526295</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2290599436054171</v>
+        <v>0.6294327923758785</v>
       </c>
       <c r="N4" t="n">
-        <v>136.0618494067287</v>
+        <v>36.01850799667309</v>
       </c>
       <c r="O4" t="n">
-        <v>215.2887780231617</v>
+        <v>56.7393970194325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_6</t>
+          <t>model_1_23_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9885467369175982</v>
+        <v>0.912562323045768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7298750991688142</v>
+        <v>0.714112607470863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7085182751070324</v>
+        <v>0.6113205930523329</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9480405835365996</v>
+        <v>0.7267694356912537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04806689504577407</v>
+        <v>0.3669572252874533</v>
       </c>
       <c r="G5" t="n">
-        <v>1.806326455668939</v>
+        <v>1.911730310232739</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04261322886066</v>
+        <v>1.3902837017249</v>
       </c>
       <c r="I5" t="n">
-        <v>0.13020521331777</v>
+        <v>0.1886430100550617</v>
       </c>
       <c r="J5" t="n">
-        <v>0.453889143112659</v>
+        <v>2.256735268633239</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2192416362048369</v>
+        <v>0.6057699441928869</v>
       </c>
       <c r="L5" t="n">
-        <v>1.006704349121406</v>
+        <v>0.7002136790140618</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2285752065508296</v>
+        <v>0.6315588248338334</v>
       </c>
       <c r="N5" t="n">
-        <v>136.0703231830233</v>
+        <v>36.00501998014116</v>
       </c>
       <c r="O5" t="n">
-        <v>215.2972517994563</v>
+        <v>56.72590900290057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_5</t>
+          <t>model_1_23_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9885909995366858</v>
+        <v>0.9132765184395206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7296124896106146</v>
+        <v>0.7140852925748269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7083350015086275</v>
+        <v>0.6103302432785884</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9493019479991981</v>
+        <v>0.6862784864480118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04788113430223503</v>
+        <v>0.3639599000023621</v>
       </c>
       <c r="G6" t="n">
-        <v>1.808082526993825</v>
+        <v>1.911912965068306</v>
       </c>
       <c r="H6" t="n">
-        <v>1.043268787895341</v>
+        <v>1.393826125441804</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1270443574016961</v>
+        <v>0.2165986473189832</v>
       </c>
       <c r="J6" t="n">
-        <v>0.457168746382179</v>
+        <v>2.238939815073236</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2188175822511414</v>
+        <v>0.6032908916951772</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006678439295599</v>
+        <v>0.7026623489354993</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2281330997424126</v>
+        <v>0.6289742339389501</v>
       </c>
       <c r="N6" t="n">
-        <v>136.0780674161002</v>
+        <v>36.02142316448533</v>
       </c>
       <c r="O6" t="n">
-        <v>215.3049960325333</v>
+        <v>56.74231218724474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_4</t>
+          <t>model_1_23_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.988630754803717</v>
+        <v>0.9122942124833404</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7293452762855128</v>
+        <v>0.7140798052835768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7081355240368881</v>
+        <v>0.611460225361889</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9505432711063079</v>
+        <v>0.7348769892957259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04771428995105269</v>
+        <v>0.3680824279630706</v>
       </c>
       <c r="G7" t="n">
-        <v>1.809869383729185</v>
+        <v>1.911949658610162</v>
       </c>
       <c r="H7" t="n">
-        <v>1.043982307245384</v>
+        <v>1.389784245049964</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1239337231613875</v>
+        <v>0.1830454177066371</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4604652817497911</v>
+        <v>2.261248438160135</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2184360088242153</v>
+        <v>0.6066979709567774</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006655167919775</v>
+        <v>0.6992944428000243</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2277352819447364</v>
+        <v>0.6325263596183429</v>
       </c>
       <c r="N7" t="n">
-        <v>136.0850486925325</v>
+        <v>35.99889675372984</v>
       </c>
       <c r="O7" t="n">
-        <v>215.3119773089655</v>
+        <v>56.71978577648925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_3</t>
+          <t>model_1_23_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9886658035259172</v>
+        <v>0.9133693014870011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7290733188932068</v>
+        <v>0.7140354534139932</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7079196274507412</v>
+        <v>0.609958744398176</v>
       </c>
       <c r="E8" t="n">
-        <v>0.951763684293906</v>
+        <v>0.6742133995794535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04756719796169012</v>
+        <v>0.363570509400471</v>
       </c>
       <c r="G8" t="n">
-        <v>1.811687964063784</v>
+        <v>1.912246239766289</v>
       </c>
       <c r="H8" t="n">
-        <v>1.044754556815628</v>
+        <v>1.395154955396297</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1208754871332949</v>
+        <v>0.2249285876725404</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4637816561589053</v>
+        <v>2.234490845245825</v>
       </c>
       <c r="K8" t="n">
-        <v>0.218099055389266</v>
+        <v>0.602968083235316</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006634651594585</v>
+        <v>0.7029804622411467</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2273839837044715</v>
+        <v>0.6286376828546471</v>
       </c>
       <c r="N8" t="n">
-        <v>136.0912237474958</v>
+        <v>36.02356405445523</v>
       </c>
       <c r="O8" t="n">
-        <v>215.3181523639289</v>
+        <v>56.74445307721464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_2</t>
+          <t>model_1_23_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9886960085465442</v>
+        <v>0.9119882497547438</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7287964724841327</v>
+        <v>0.7140322437096396</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7076870406472324</v>
+        <v>0.6115628077801236</v>
       </c>
       <c r="E9" t="n">
-        <v>0.952962407823203</v>
+        <v>0.7421323720190296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04744043395165342</v>
+        <v>0.3693664880826683</v>
       </c>
       <c r="G9" t="n">
-        <v>1.813539237276024</v>
+        <v>1.912267703074082</v>
       </c>
       <c r="H9" t="n">
-        <v>1.045586506325622</v>
+        <v>1.389417313688009</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1178716032665258</v>
+        <v>0.1780361785701292</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4671190904913087</v>
+        <v>2.265747416909222</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2178082504214508</v>
+        <v>0.6077552863469542</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006616970606901</v>
+        <v>0.6982454277305501</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2270807985671271</v>
+        <v>0.6336286871136242</v>
       </c>
       <c r="N9" t="n">
-        <v>136.0965607539113</v>
+        <v>35.99193187039026</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3234893703443</v>
+        <v>56.71282089314967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_1</t>
+          <t>model_1_23_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9887211507233549</v>
+        <v>0.9134289059505722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7285147039597093</v>
+        <v>0.7139670105854108</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7074366874988922</v>
+        <v>0.6095313111899723</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9541376165695854</v>
+        <v>0.6613892853974613</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04733491761405698</v>
+        <v>0.3633203622176009</v>
       </c>
       <c r="G10" t="n">
-        <v>1.815423424696267</v>
+        <v>1.91270391727617</v>
       </c>
       <c r="H10" t="n">
-        <v>1.046482005020925</v>
+        <v>1.39668385919804</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1149266451447692</v>
+        <v>0.2337825733410221</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4704758863381234</v>
+        <v>2.230034052284324</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2175658925798274</v>
+        <v>0.6027606176730534</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006602253235109</v>
+        <v>0.703184820401962</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2268281230504358</v>
+        <v>0.628421385053886</v>
       </c>
       <c r="N10" t="n">
-        <v>136.1010140797792</v>
+        <v>36.02494058676572</v>
       </c>
       <c r="O10" t="n">
-        <v>215.3279426962123</v>
+        <v>56.74582960952512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_0</t>
+          <t>model_1_23_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.988741007041701</v>
+        <v>0.913455703980652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7282278455087818</v>
+        <v>0.7138792386299099</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7071680740760187</v>
+        <v>0.6090445057676532</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9552883005474484</v>
+        <v>0.6478079163615595</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04725158489367238</v>
+        <v>0.3632078966180587</v>
       </c>
       <c r="G11" t="n">
-        <v>1.817341648478481</v>
+        <v>1.913290848746757</v>
       </c>
       <c r="H11" t="n">
-        <v>1.047442819659442</v>
+        <v>1.398425133967075</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1120431436931211</v>
+        <v>0.2431593805883478</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4738522973976773</v>
+        <v>2.225651146579274</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2173742967640663</v>
+        <v>0.6026673183590253</v>
       </c>
       <c r="L11" t="n">
-        <v>1.00659063002437</v>
+        <v>0.7032766993622355</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2266283706041399</v>
+        <v>0.6283241137949035</v>
       </c>
       <c r="N11" t="n">
-        <v>136.1045381657634</v>
+        <v>36.02555978140308</v>
       </c>
       <c r="O11" t="n">
-        <v>215.3314667821965</v>
+        <v>56.74644880416248</v>
       </c>
     </row>
   </sheetData>
